--- a/biology/Botanique/Chromulinaceae/Chromulinaceae.xlsx
+++ b/biology/Botanique/Chromulinaceae/Chromulinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chromulinaceae sont une famille d'algues de l'embranchement des Ochrophyta, de la classe des Chrysophyceae et de l'ordre des Chromulinales.
-Les genres Chromulina (Cienkowski 1870) et Chrysomonas (Stein 1878), furent les deux premiers genres de flagellés photosynthétiques nus et unicellulaires jamais décrits[2].
+Les genres Chromulina (Cienkowski 1870) et Chrysomonas (Stein 1878), furent les deux premiers genres de flagellés photosynthétiques nus et unicellulaires jamais décrits.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Chromulina, composé du préfixe chrom-, couleur, et du suffixe -lin-, fil, peut-être en référence aux plastes de couleur brun doré de ces organismes et leur nage avec leur unique flagelle déployé[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Chromulina, composé du préfixe chrom-, couleur, et du suffixe -lin-, fil, peut-être en référence aux plastes de couleur brun doré de ces organismes et leur nage avec leur unique flagelle déployé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chromulina sont des organismes unicellulaires sans paroi cellulaire et dotés d'un seul flagelle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chromulina sont des organismes unicellulaires sans paroi cellulaire et dotés d'un seul flagelle.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,9 +618,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (10 septembre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (10 septembre 2022) :
 Acanthochrysis W.Conrad, 1931
 Amphichrysis Korshikov, 1929
 Botryochrysis Matvienko, 1965
